--- a/Team-Data/2012-13/4-15-2012-13.xlsx
+++ b/Team-Data/2012-13/4-15-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -768,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -789,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -804,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -819,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -944,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>7</v>
@@ -962,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
@@ -980,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="AV3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
@@ -1001,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" t="n">
         <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.593</v>
+        <v>0.588</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1048,7 +1115,7 @@
         <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.449</v>
@@ -1057,10 +1124,10 @@
         <v>7.7</v>
       </c>
       <c r="M4" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O4" t="n">
         <v>17.5</v>
@@ -1069,19 +1136,19 @@
         <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.731</v>
+        <v>0.735</v>
       </c>
       <c r="R4" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T4" t="n">
         <v>42.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
@@ -1093,7 +1160,7 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z4" t="n">
         <v>18.2</v>
@@ -1102,13 +1169,13 @@
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1120,13 +1187,13 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
         <v>14</v>
@@ -1141,31 +1208,31 @@
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
         <v>5</v>
       </c>
       <c r="AS4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
       </c>
       <c r="AU4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV4" t="n">
         <v>13</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
@@ -1177,10 +1244,10 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>61</v>
       </c>
       <c r="G5" t="n">
-        <v>0.247</v>
+        <v>0.238</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J5" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
@@ -1245,28 +1312,28 @@
         <v>0.334</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R5" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S5" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T5" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U5" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.2</v>
@@ -1275,31 +1342,31 @@
         <v>5.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA5" t="n">
         <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.4</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
         <v>27</v>
@@ -1341,13 +1408,13 @@
         <v>27</v>
       </c>
       <c r="AU5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1359,10 +1426,10 @@
         <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
         <v>37</v>
       </c>
       <c r="G6" t="n">
-        <v>0.543</v>
+        <v>0.538</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L6" t="n">
         <v>5.4</v>
@@ -1424,28 +1491,28 @@
         <v>15.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T6" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.3</v>
@@ -1460,31 +1527,31 @@
         <v>5.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA6" t="n">
         <v>19.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>27</v>
@@ -1493,10 +1560,10 @@
         <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1505,13 +1572,13 @@
         <v>21</v>
       </c>
       <c r="AO6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP6" t="n">
         <v>18</v>
       </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1520,10 +1587,10 @@
         <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>10</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
-        <v>0.296</v>
+        <v>0.3</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
         <v>84.2</v>
@@ -1603,25 +1670,25 @@
         <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N7" t="n">
         <v>0.346</v>
       </c>
       <c r="O7" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R7" t="n">
         <v>12.3</v>
       </c>
       <c r="S7" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T7" t="n">
         <v>41.1</v>
@@ -1630,7 +1697,7 @@
         <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
         <v>7.9</v>
@@ -1654,19 +1721,19 @@
         <v>-4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
@@ -1681,10 +1748,10 @@
         <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1708,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I8" t="n">
         <v>38.8</v>
       </c>
       <c r="J8" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
@@ -1788,28 +1855,28 @@
         <v>19.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O8" t="n">
         <v>16.2</v>
       </c>
       <c r="P8" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R8" t="n">
         <v>9.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
         <v>14</v>
@@ -1818,7 +1885,7 @@
         <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y8" t="n">
         <v>4.2</v>
@@ -1833,10 +1900,10 @@
         <v>101.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1848,16 +1915,16 @@
         <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>12</v>
@@ -1884,13 +1951,13 @@
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW8" t="n">
         <v>17</v>
@@ -1908,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -1940,22 +2007,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" t="n">
         <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="J9" t="n">
         <v>85.09999999999999</v>
@@ -1967,28 +2034,28 @@
         <v>6.4</v>
       </c>
       <c r="M9" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
         <v>0.7</v>
       </c>
       <c r="R9" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S9" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T9" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U9" t="n">
         <v>24.4</v>
@@ -1997,7 +2064,7 @@
         <v>15.3</v>
       </c>
       <c r="W9" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X9" t="n">
         <v>6.5</v>
@@ -2012,13 +2079,13 @@
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2063,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2090,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="BB9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
         <v>52</v>
       </c>
       <c r="G10" t="n">
-        <v>0.358</v>
+        <v>0.35</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2149,7 +2216,7 @@
         <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N10" t="n">
         <v>0.359</v>
@@ -2161,7 +2228,7 @@
         <v>22.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.698</v>
+        <v>0.697</v>
       </c>
       <c r="R10" t="n">
         <v>12.1</v>
@@ -2191,25 +2258,25 @@
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4</v>
+        <v>-4.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2221,10 +2288,10 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
@@ -2272,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="BB10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC10" t="n">
         <v>25</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n">
         <v>35</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2325,7 +2392,7 @@
         <v>83.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L11" t="n">
         <v>8</v>
@@ -2334,7 +2401,7 @@
         <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.403</v>
+        <v>0.402</v>
       </c>
       <c r="O11" t="n">
         <v>16.9</v>
@@ -2349,16 +2416,16 @@
         <v>10.8</v>
       </c>
       <c r="S11" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
         <v>22.5</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
         <v>6.9</v>
@@ -2370,19 +2437,19 @@
         <v>4.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2397,7 +2464,7 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2415,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>16</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2430,19 +2497,19 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
@@ -2454,10 +2521,10 @@
         <v>20</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
         <v>45</v>
       </c>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>0.556</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2504,7 +2571,7 @@
         <v>38.1</v>
       </c>
       <c r="J12" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.461</v>
@@ -2519,16 +2586,16 @@
         <v>0.368</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P12" t="n">
         <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
         <v>32.3</v>
@@ -2537,19 +2604,19 @@
         <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
         <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
         <v>20.2</v>
@@ -2558,22 +2625,22 @@
         <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2585,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2624,7 +2691,7 @@
         <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2767,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2818,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="BB13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3000,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="BB14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3189,7 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
@@ -3164,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="n">
         <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.679</v>
+        <v>0.675</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3238,16 +3305,16 @@
         <v>0.444</v>
       </c>
       <c r="L16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M16" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="N16" t="n">
         <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P16" t="n">
         <v>21.3</v>
@@ -3262,7 +3329,7 @@
         <v>29.7</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U16" t="n">
         <v>20.9</v>
@@ -3283,16 +3350,16 @@
         <v>20.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
         <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3310,10 +3377,10 @@
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,22 +3389,22 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
         <v>4</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT16" t="n">
         <v>12</v>
@@ -3352,13 +3419,13 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.802</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J17" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.495</v>
@@ -3423,37 +3490,37 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.396</v>
+        <v>0.395</v>
       </c>
       <c r="O17" t="n">
         <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T17" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>5.3</v>
@@ -3471,10 +3538,10 @@
         <v>102.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM17" t="n">
         <v>6</v>
@@ -3507,25 +3574,25 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -3578,34 +3645,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="n">
         <v>37</v>
       </c>
       <c r="F18" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="n">
-        <v>0.457</v>
+        <v>0.463</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J18" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.435</v>
       </c>
       <c r="L18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N18" t="n">
         <v>0.36</v>
@@ -3614,13 +3681,13 @@
         <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S18" t="n">
         <v>30.9</v>
@@ -3632,7 +3699,7 @@
         <v>22.9</v>
       </c>
       <c r="V18" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W18" t="n">
         <v>8.4</v>
@@ -3647,16 +3714,16 @@
         <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
         <v>-1.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
@@ -3668,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
         <v>6</v>
@@ -3677,16 +3744,16 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
         <v>14</v>
       </c>
       <c r="AM18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3707,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>9</v>
@@ -3725,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J19" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K19" t="n">
         <v>0.439</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
         <v>17.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.303</v>
+        <v>0.305</v>
       </c>
       <c r="O19" t="n">
         <v>18.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q19" t="n">
         <v>0.742</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T19" t="n">
         <v>42</v>
       </c>
       <c r="U19" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V19" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W19" t="n">
         <v>8.5</v>
@@ -3823,22 +3890,22 @@
         <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
         <v>18.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
@@ -3850,10 +3917,10 @@
         <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
@@ -3862,7 +3929,7 @@
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
         <v>22</v>
@@ -3883,10 +3950,10 @@
         <v>10</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU19" t="n">
         <v>16</v>
@@ -3895,7 +3962,7 @@
         <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>18</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4099,7 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="n">
         <v>53</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.654</v>
+        <v>0.663</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4151,7 +4218,7 @@
         <v>10.9</v>
       </c>
       <c r="M21" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
         <v>0.376</v>
@@ -4160,25 +4227,25 @@
         <v>16.1</v>
       </c>
       <c r="P21" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V21" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W21" t="n">
         <v>8.199999999999999</v>
@@ -4199,10 +4266,10 @@
         <v>100</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
@@ -4214,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4223,7 +4290,7 @@
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
         <v>21</v>
@@ -4241,34 +4308,34 @@
         <v>20</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT21" t="n">
         <v>25</v>
       </c>
-      <c r="AT21" t="n">
-        <v>26</v>
-      </c>
       <c r="AU21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.741</v>
+        <v>0.738</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,31 +4391,31 @@
         <v>38.1</v>
       </c>
       <c r="J22" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K22" t="n">
         <v>0.482</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M22" t="n">
         <v>19.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O22" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="P22" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.828</v>
+        <v>0.829</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S22" t="n">
         <v>33.3</v>
@@ -4369,22 +4436,22 @@
         <v>7.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="AC22" t="n">
         <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4411,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="AM22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
         <v>3</v>
@@ -4435,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4456,7 +4523,7 @@
         <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="H23" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L23" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M23" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O23" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="P23" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.761</v>
+        <v>0.765</v>
       </c>
       <c r="R23" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V23" t="n">
         <v>14.5</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
         <v>4.4</v>
@@ -4557,16 +4624,16 @@
         <v>19.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.9</v>
+        <v>-6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4605,10 +4672,10 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS23" t="n">
         <v>9</v>
@@ -4617,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
         <v>33</v>
       </c>
       <c r="F24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" t="n">
-        <v>0.407</v>
+        <v>0.413</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,7 +4755,7 @@
         <v>37.2</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
         <v>0.443</v>
@@ -4700,16 +4767,16 @@
         <v>17.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O24" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="P24" t="n">
         <v>16.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.729</v>
+        <v>0.727</v>
       </c>
       <c r="R24" t="n">
         <v>10.9</v>
@@ -4718,10 +4785,10 @@
         <v>30.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
@@ -4733,52 +4800,52 @@
         <v>4.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
         <v>18.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC24" t="n">
         <v>-3.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,13 +4860,13 @@
         <v>18</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
         <v>56</v>
       </c>
       <c r="G25" t="n">
-        <v>0.309</v>
+        <v>0.3</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J25" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K25" t="n">
         <v>0.443</v>
@@ -4879,7 +4946,7 @@
         <v>5.8</v>
       </c>
       <c r="M25" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N25" t="n">
         <v>0.331</v>
@@ -4888,25 +4955,25 @@
         <v>14.7</v>
       </c>
       <c r="P25" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
         <v>22.5</v>
       </c>
       <c r="V25" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W25" t="n">
         <v>8</v>
@@ -4915,7 +4982,7 @@
         <v>5.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z25" t="n">
         <v>20.6</v>
@@ -4924,13 +4991,13 @@
         <v>18.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4945,13 +5012,13 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
         <v>26</v>
@@ -4966,7 +5033,7 @@
         <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
@@ -4981,7 +5048,7 @@
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -4990,7 +5057,7 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5172,16 +5239,16 @@
         <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" t="n">
         <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>0.346</v>
+        <v>0.35</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5246,16 +5313,16 @@
         <v>20.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O27" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
         <v>22.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R27" t="n">
         <v>11.5</v>
@@ -5279,7 +5346,7 @@
         <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
@@ -5288,31 +5355,31 @@
         <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK27" t="n">
         <v>19</v>
@@ -5324,10 +5391,10 @@
         <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5342,7 +5409,7 @@
         <v>29</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU27" t="n">
         <v>25</v>
@@ -5351,10 +5418,10 @@
         <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" t="n">
         <v>58</v>
       </c>
       <c r="F28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>0.716</v>
+        <v>0.725</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,7 +5483,7 @@
         <v>39.2</v>
       </c>
       <c r="J28" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.482</v>
@@ -5425,31 +5492,31 @@
         <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N28" t="n">
         <v>0.376</v>
       </c>
       <c r="O28" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T28" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
@@ -5473,10 +5540,10 @@
         <v>103.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5506,16 +5573,16 @@
         <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5533,7 +5600,7 @@
         <v>16</v>
       </c>
       <c r="AW28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX28" t="n">
         <v>9</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-2</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>21</v>
@@ -5676,16 +5743,16 @@
         <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN29" t="n">
         <v>26</v>
@@ -5709,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5730,7 +5797,7 @@
         <v>12</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" t="n">
         <v>38</v>
       </c>
       <c r="G30" t="n">
-        <v>0.531</v>
+        <v>0.525</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5783,31 +5850,31 @@
         <v>81.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L30" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M30" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N30" t="n">
         <v>0.367</v>
       </c>
       <c r="O30" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P30" t="n">
         <v>22.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
         <v>42</v>
@@ -5825,22 +5892,22 @@
         <v>6.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
         <v>21.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB30" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5864,28 +5931,28 @@
         <v>12</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
         <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP30" t="n">
         <v>11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5915,7 +5982,7 @@
         <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" t="n">
-        <v>0.358</v>
+        <v>0.363</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J31" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N31" t="n">
         <v>0.364</v>
@@ -5980,7 +6047,7 @@
         <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
         <v>0.732</v>
@@ -5998,7 +6065,7 @@
         <v>21.7</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
@@ -6016,13 +6083,13 @@
         <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>-2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>23</v>
@@ -6034,25 +6101,25 @@
         <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
         <v>24</v>
@@ -6061,7 +6128,7 @@
         <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
         <v>20</v>
@@ -6070,34 +6137,34 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU31" t="n">
         <v>19</v>
       </c>
       <c r="AV31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW31" t="n">
         <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>20</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-15-2012-13</t>
+          <t>2013-04-15</t>
         </is>
       </c>
     </row>
